--- a/trees.xlsx
+++ b/trees.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12345"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
     <sheet name="List2" sheetId="2" r:id="rId2"/>
+    <sheet name="List3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="112">
   <si>
     <t>aby</t>
   </si>
@@ -353,6 +354,9 @@
   </si>
   <si>
     <t>_SCONJ</t>
+  </si>
+  <si>
+    <t>_^(aby-SCONJ, by-být-AUX)</t>
   </si>
 </sst>
 </file>
@@ -749,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2813,7 +2817,7 @@
   <dimension ref="A1:AF28"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5341,4 +5345,1666 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2">
+        <v>15</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>11</v>
+      </c>
+      <c r="R3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>11</v>
+      </c>
+      <c r="R4" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>11</v>
+      </c>
+      <c r="R5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6">
+        <v>11</v>
+      </c>
+      <c r="R6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>7</v>
+      </c>
+      <c r="R7" t="s">
+        <v>53</v>
+      </c>
+      <c r="S7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8">
+        <v>11</v>
+      </c>
+      <c r="R8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9" t="s">
+        <v>106</v>
+      </c>
+      <c r="S9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N10" t="s">
+        <v>84</v>
+      </c>
+      <c r="O10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+      <c r="R10" t="s">
+        <v>107</v>
+      </c>
+      <c r="S10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+      <c r="R11" t="s">
+        <v>53</v>
+      </c>
+      <c r="S11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" t="s">
+        <v>93</v>
+      </c>
+      <c r="N12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
+        <v>82</v>
+      </c>
+      <c r="S12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P13" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q13">
+        <v>15</v>
+      </c>
+      <c r="R13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14">
+        <v>13</v>
+      </c>
+      <c r="L14" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" t="s">
+        <v>99</v>
+      </c>
+      <c r="N14" t="s">
+        <v>100</v>
+      </c>
+      <c r="O14" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14">
+        <v>15</v>
+      </c>
+      <c r="R14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S14" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15">
+        <v>14</v>
+      </c>
+      <c r="L15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q15">
+        <v>15</v>
+      </c>
+      <c r="R15" t="s">
+        <v>108</v>
+      </c>
+      <c r="S15" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16">
+        <v>15</v>
+      </c>
+      <c r="L16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16" t="s">
+        <v>73</v>
+      </c>
+      <c r="O16" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>64</v>
+      </c>
+      <c r="S16" t="s">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17">
+        <v>16</v>
+      </c>
+      <c r="L17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <v>19</v>
+      </c>
+      <c r="R17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S17" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18">
+        <v>17</v>
+      </c>
+      <c r="L18" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>111</v>
+      </c>
+      <c r="N18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q18">
+        <v>19</v>
+      </c>
+      <c r="R18" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19">
+        <v>18</v>
+      </c>
+      <c r="L19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q19">
+        <v>19</v>
+      </c>
+      <c r="R19" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19" t="s">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20">
+        <v>19</v>
+      </c>
+      <c r="L20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q20">
+        <v>15</v>
+      </c>
+      <c r="R20" t="s">
+        <v>109</v>
+      </c>
+      <c r="S20" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" t="s">
+        <v>14</v>
+      </c>
+      <c r="P21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q21">
+        <v>19</v>
+      </c>
+      <c r="R21" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22">
+        <v>21</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" t="s">
+        <v>27</v>
+      </c>
+      <c r="P22" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q22">
+        <v>20</v>
+      </c>
+      <c r="R22" t="s">
+        <v>29</v>
+      </c>
+      <c r="S22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23">
+        <v>22</v>
+      </c>
+      <c r="L23" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q23">
+        <v>23</v>
+      </c>
+      <c r="R23" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24">
+        <v>23</v>
+      </c>
+      <c r="L24" t="s">
+        <v>38</v>
+      </c>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q24">
+        <v>21</v>
+      </c>
+      <c r="R24" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25">
+        <v>24</v>
+      </c>
+      <c r="L25" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" t="s">
+        <v>41</v>
+      </c>
+      <c r="N25" t="s">
+        <v>42</v>
+      </c>
+      <c r="O25" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q25">
+        <v>25</v>
+      </c>
+      <c r="R25" t="s">
+        <v>45</v>
+      </c>
+      <c r="S25" t="s">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26">
+        <v>25</v>
+      </c>
+      <c r="L26" t="s">
+        <v>46</v>
+      </c>
+      <c r="M26" t="s">
+        <v>47</v>
+      </c>
+      <c r="N26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O26" t="s">
+        <v>48</v>
+      </c>
+      <c r="P26" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q26">
+        <v>23</v>
+      </c>
+      <c r="R26" t="s">
+        <v>29</v>
+      </c>
+      <c r="S26" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27">
+        <v>26</v>
+      </c>
+      <c r="L27" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" t="s">
+        <v>50</v>
+      </c>
+      <c r="N27" t="s">
+        <v>51</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27">
+        <v>15</v>
+      </c>
+      <c r="R27" t="s">
+        <v>53</v>
+      </c>
+      <c r="S27" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>